--- a/data/132/EPSE/SBF 120 Index - Daily.xlsx
+++ b/data/132/EPSE/SBF 120 Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LAW2"/>
+  <dimension ref="A1:LAY2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41159,15 +41159,25 @@
       </c>
       <c r="LAU1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-04</t>
+        </is>
+      </c>
+      <c r="LAV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-05</t>
+        </is>
+      </c>
+      <c r="LAW1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="LAV1" s="1" t="inlineStr">
+      <c r="LAX1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="LAW1" s="1" t="inlineStr">
+      <c r="LAY1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -65236,19 +65246,25 @@
         <v>5162.77</v>
       </c>
       <c r="LAT2" t="n">
-        <v>5171.97</v>
-      </c>
-      <c r="LAU2" t="inlineStr">
+        <v>5179.08</v>
+      </c>
+      <c r="LAU2" t="n">
+        <v>5213.28</v>
+      </c>
+      <c r="LAV2" t="n">
+        <v>5146.88</v>
+      </c>
+      <c r="LAW2" t="inlineStr">
         <is>
           <t>SBF120</t>
         </is>
       </c>
-      <c r="LAV2" t="inlineStr">
+      <c r="LAX2" t="inlineStr">
         <is>
           <t>SBF 120 Index, Close Price</t>
         </is>
       </c>
-      <c r="LAW2" t="inlineStr">
+      <c r="LAY2" t="inlineStr">
         <is>
           <t>Index: 1990.12.28=1000</t>
         </is>
